--- a/medicine/Sexualité et sexologie/Anarchie_relationnelle/Anarchie_relationnelle.xlsx
+++ b/medicine/Sexualité et sexologie/Anarchie_relationnelle/Anarchie_relationnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anarchie relationnelle est la pratique ou la conviction que les relations ne doivent pas être liées par des règles autres que celles sur lesquelles les personnes impliquées se sont mises d'accord. Si une personne anarchiste relationnelle a de multiples partenaires intimes, cela peut être considéré comme une forme de polyamour, mais le concept d'anarchie relationnelle se distingue du polyamour en postulant qu'il n'est pas nécessaire de faire de distinction formelle entre relations sexuelles, romantiques, intimes, ou platoniques.
 Les anarchistes relationnels examinent chaque relation (romantique ou autre) individuellement, plutôt que de les catégoriser dans des normes définies par la société comme « juste amis », « dans une relation » ou « dans une relation libre ». Par conséquent, les relations amoureuses ne sont pas automatiquement classées comme étant plus importantes que d'autres types de relation. Il en va de même pour les relations incluant des éléments tels la cohabitation, le cotravail, ou la coparentalité. 
-Le terme « anarchie relationnelle » a été créé par Andie Nordgren[1] et est le sujet de mémoires de licences[Quoi ?] suédoises par Jacob Strandell[2] et Ida Midnattssol[3]. Il a été débattu dans des ateliers à OpenCon 2010[4] et par Meg-John Barker dans une présentation en 2013[5].
-Le mouvement anarchiste relationnel est apparenté à l'amour libre, mouvement du XXe siècle[6] dont certaines formes rejettent l'idée de mariage monogame, le percevant comme une forme de servitude sociale et financière.
+Le terme « anarchie relationnelle » a été créé par Andie Nordgren et est le sujet de mémoires de licences[Quoi ?] suédoises par Jacob Strandell et Ida Midnattssol. Il a été débattu dans des ateliers à OpenCon 2010 et par Meg-John Barker dans une présentation en 2013.
+Le mouvement anarchiste relationnel est apparenté à l'amour libre, mouvement du XXe siècle dont certaines formes rejettent l'idée de mariage monogame, le percevant comme une forme de servitude sociale et financière.
 Les pratiquants de l'anarchie relationnelle sont appelés des anarchistes relationnels, terme parfois abrégé en anarel.
 </t>
         </is>
